--- a/00硬件/06北京琦安_无锡尚瑞_电气技术有限公司/询价单-技联企服20180409.xlsx
+++ b/00硬件/06北京琦安_无锡尚瑞_电气技术有限公司/询价单-技联企服20180409.xlsx
@@ -10,7 +10,7 @@
     <sheet name="询价单" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">询价单!$B$1:$J$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">询价单!$B$1:$J$40</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -219,10 +219,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>自动驾驶、泊车、制动而新增加的功能</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>一年内后续修改维护费用</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -263,6 +259,10 @@
   </si>
   <si>
     <t>增值税费</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VAD01及能量回收等功能</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -771,13 +771,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>273050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1041400</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -839,13 +839,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>279400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>685801</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -907,13 +907,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>292100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>481240</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1328,10 +1328,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B1:L563"/>
+  <dimension ref="B1:L560"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="41"/>
       <c r="E5" s="2"/>
@@ -1414,7 +1414,7 @@
         <v>31</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="24.75" customHeight="1">
@@ -1495,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -1517,7 +1517,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -1539,7 +1539,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -1561,7 +1561,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -1589,7 +1589,7 @@
       <c r="G14" s="12"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13">
-        <f t="shared" ref="I9:I17" si="1">F14*H14</f>
+        <f t="shared" ref="I14:I17" si="1">F14*H14</f>
         <v>0</v>
       </c>
       <c r="J14" s="10"/>
@@ -1689,160 +1689,171 @@
         <v>43290</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="24.75" customHeight="1">
-      <c r="B22" s="2"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
+    <row r="22" spans="2:10" ht="54" customHeight="1">
+      <c r="C22" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="I22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="23" spans="2:10" ht="24.75" customHeight="1">
-      <c r="B23" s="2"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-    </row>
-    <row r="24" spans="2:10" ht="24.75" customHeight="1"/>
-    <row r="25" spans="2:10" ht="54" customHeight="1">
-      <c r="C25" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="I25" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="1" t="s">
+      <c r="C23" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="53"/>
+      <c r="E23" s="54"/>
+      <c r="I23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="18"/>
+    </row>
+    <row r="24" spans="2:10" ht="24.75" customHeight="1">
+      <c r="C24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+    </row>
+    <row r="25" spans="2:10" ht="24.75" customHeight="1">
+      <c r="C25" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="52"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="2:10" ht="64.5" customHeight="1">
+      <c r="C26" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="51"/>
+      <c r="E26" s="49"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="36" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="24.75" customHeight="1">
-      <c r="C26" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="53"/>
-      <c r="E26" s="54"/>
-      <c r="I26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J26" s="18"/>
-    </row>
     <row r="27" spans="2:10" ht="24.75" customHeight="1">
-      <c r="C27" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
+      <c r="C27" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="49"/>
+      <c r="F27" s="19"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="26" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="28" spans="2:10" ht="24.75" customHeight="1">
-      <c r="C28" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="52"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="2:10" ht="64.5" customHeight="1">
-      <c r="C29" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="51"/>
-      <c r="E29" s="49"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" s="36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="24.75" customHeight="1">
-      <c r="C30" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="49"/>
-      <c r="F30" s="19"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="26" t="s">
+      <c r="C28" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="50">
+        <v>0.17</v>
+      </c>
+      <c r="E28" s="49"/>
+      <c r="F28" s="19"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="24.75" customHeight="1">
-      <c r="C31" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="50">
-        <v>0.17</v>
-      </c>
-      <c r="E31" s="49"/>
-      <c r="F31" s="19"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" ht="24.75" customHeight="1">
-      <c r="C32" s="17"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10" ht="24.75" customHeight="1"/>
-    <row r="34" spans="2:10" ht="24.75" customHeight="1" thickBot="1">
-      <c r="B34" s="42" t="s">
+    <row r="29" spans="2:10" ht="24.75" customHeight="1">
+      <c r="C29" s="17"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="2:10" ht="24.75" customHeight="1"/>
+    <row r="31" spans="2:10" ht="24.75" customHeight="1" thickBot="1">
+      <c r="B31" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-    </row>
-    <row r="35" spans="2:10" ht="24.75" customHeight="1"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+    </row>
+    <row r="32" spans="2:10" ht="24.75" customHeight="1"/>
+    <row r="33" spans="2:10" ht="24.75" customHeight="1">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="2:10" ht="24.75" customHeight="1">
+      <c r="B34" s="2"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+    </row>
+    <row r="35" spans="2:10" ht="24.75" customHeight="1">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+    </row>
     <row r="36" spans="2:10" ht="24.75" customHeight="1">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
     </row>
     <row r="37" spans="2:10" ht="24.75" customHeight="1">
-      <c r="B37" s="2"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
     </row>
     <row r="38" spans="2:10" ht="24.75" customHeight="1">
-      <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -1853,51 +1864,24 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="2:10" ht="24.75" customHeight="1">
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
+      <c r="C39" s="16"/>
     </row>
     <row r="40" spans="2:10" ht="24.75" customHeight="1">
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="2:10" ht="24.75" customHeight="1">
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="2:10" ht="24.75" customHeight="1">
-      <c r="C42" s="16"/>
-    </row>
-    <row r="43" spans="2:10" ht="24.75" customHeight="1">
-      <c r="D43" s="15" t="s">
+      <c r="D40" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
+      <c r="E40" s="15"/>
+      <c r="F40" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16" t="s">
+      <c r="H40" s="16"/>
+      <c r="I40" s="16" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="41" spans="2:10" ht="24.75" customHeight="1"/>
+    <row r="42" spans="2:10" ht="24.75" customHeight="1"/>
+    <row r="43" spans="2:10" ht="24.75" customHeight="1"/>
     <row r="44" spans="2:10" ht="24.75" customHeight="1"/>
     <row r="45" spans="2:10" ht="24.75" customHeight="1"/>
     <row r="46" spans="2:10" ht="24.75" customHeight="1"/>
@@ -2415,22 +2399,19 @@
     <row r="558" ht="24.75" customHeight="1"/>
     <row r="559" ht="24.75" customHeight="1"/>
     <row r="560" ht="24.75" customHeight="1"/>
-    <row r="561" ht="24.75" customHeight="1"/>
-    <row r="562" ht="24.75" customHeight="1"/>
-    <row r="563" ht="24.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="B31:J31"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="B2:J2"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D23:E23"/>
     <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D29:E29"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
